--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_3.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_4_3.xlsx
@@ -518,606 +518,606 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_15</t>
+          <t>model_4_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.972777461277055</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8142313392276889</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9912429075056083</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7725397471155399</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9346486641280844</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1820372417885981</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H2" t="n">
-        <v>1.242235889970475</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1059949476995454</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J2" t="n">
-        <v>1.008403551176561</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K2" t="n">
-        <v>0.557199249438053</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2473571175753047</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4266582259708561</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N2" t="n">
-        <v>1.017657862955424</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4448219499547202</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P2" t="n">
-        <v>125.4070879752523</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.7585132922125</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_16</t>
+          <t>model_4_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9722377129228007</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8142269893379666</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9906927860385594</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7679537253875335</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9330659032659122</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1856465415188091</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H3" t="n">
-        <v>1.242264977703077</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1126535614078714</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J3" t="n">
-        <v>1.028734842194001</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5706942018009361</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2466412429898998</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4308671970791105</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018007969996021</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4492101056768245</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P3" t="n">
-        <v>125.3678214551442</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.7192467721045</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_14</t>
+          <t>model_4_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9733493211119847</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8142140379196418</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9918246033140509</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7775766738793868</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9363710619625258</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1782132124392509</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H4" t="n">
-        <v>1.242351583897051</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09895416140747286</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9860732549104274</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5425137228488879</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2481578508366073</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4221530675468922</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01728692684628</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4401249976096847</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P4" t="n">
-        <v>125.4495492456298</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.80097456259</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_17</t>
+          <t>model_4_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9717316905456986</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8142070849804469</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9901761813009363</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7637838972611238</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9316151363001365</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1890303154845096</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H5" t="n">
-        <v>1.242398078233462</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1189064920673079</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04722101477644</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5830637464116862</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2460069670138049</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4347761671072939</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N5" t="n">
-        <v>1.018336200727114</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4532854886517911</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P5" t="n">
-        <v>125.3316957547923</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.6831210717526</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_18</t>
+          <t>model_4_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9712599714767663</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8141762898774816</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9896938007027231</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7599978412953772</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9302884347269635</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1921847030705265</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H6" t="n">
-        <v>1.24260400522879</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1247451772600962</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J6" t="n">
-        <v>1.064005803469836</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5943754833630029</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2454437569438639</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4383887579198701</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018642180663719</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4570518749343525</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P6" t="n">
-        <v>125.2985967484323</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.6500220653926</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_13</t>
+          <t>model_4_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9739501446755026</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.814167371914385</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9924346040605185</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7830986291106099</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9382396527666194</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1741955025034686</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H7" t="n">
-        <v>1.24266363968908</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09157077505407636</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9615926733846878</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5265817242193821</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2490592488096547</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4173673471936546</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016897203453728</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4351355392332029</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P7" t="n">
-        <v>125.4951540658047</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.846579382765</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_19</t>
+          <t>model_4_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9708221706084588</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8141381676148023</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9892455853942641</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7565628870244892</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9290772630538509</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1951122794927871</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H8" t="n">
-        <v>1.242858928974863</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1301703292964227</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J8" t="n">
-        <v>1.079234046826499</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6047021880614608</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2449385176608179</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4417151565124148</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018926159605324</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4605198852015762</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P8" t="n">
-        <v>125.2683601877049</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.6197855046651</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_20</t>
+          <t>model_4_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9704175547981774</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8140954800400181</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D9" t="n">
-        <v>0.988830733157</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7534506088170878</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.927973663359062</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1978179472792233</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H9" t="n">
-        <v>1.243144380984003</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1351916581472942</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J9" t="n">
-        <v>1.093031764699375</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6141117114233346</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2444898563935506</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4447672956493354</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N9" t="n">
-        <v>1.019188613103885</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4637019602203545</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P9" t="n">
-        <v>125.2408162588686</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.5922415758289</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_12</t>
+          <t>model_4_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9745746471668914</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.814081225773213</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9930673704142448</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7891388130061587</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9402591317825352</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1700194514679822</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H10" t="n">
-        <v>1.243239699331764</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08391183612974855</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9348146195806026</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5093632209262031</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2500780449741084</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4123341502567817</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016492120756611</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4298880686825733</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P10" t="n">
-        <v>125.543684856155</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q10" t="n">
-        <v>199.8951101731152</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_21</t>
+          <t>model_4_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9700447053967136</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.814050328578397</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9884480540264976</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7506317820376632</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.926969191409786</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2003111929436246</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H11" t="n">
-        <v>1.243446309015767</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1398235670199358</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J11" t="n">
-        <v>1.105528519180551</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6226760507555119</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2440874127443827</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4475613845536996</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N11" t="n">
-        <v>1.019430461364294</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O11" t="n">
-        <v>0.466614999273939</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P11" t="n">
-        <v>125.2157663139497</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.56719163091</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_22</t>
+          <t>model_4_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9697022250495922</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8140041968732534</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9880961885365183</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7480812920070791</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9260563555860775</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2026013606018022</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H12" t="n">
-        <v>1.243754791940479</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I12" t="n">
-        <v>0.144082510754002</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J12" t="n">
-        <v>1.116835651620028</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6304590811870151</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2437280505314539</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4501126088011779</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019652610778643</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4692748344193946</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P12" t="n">
-        <v>125.1930299429705</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.5444552599308</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="13">
@@ -1127,767 +1127,767 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9693882945776207</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8139582505373645</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9877733704032067</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E13" t="n">
-        <v>0.745774352050131</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9252274553946462</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2047006151133934</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H13" t="n">
-        <v>1.244062035300131</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1479898682677822</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J13" t="n">
-        <v>1.127063049222189</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6375264587449858</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2434046551277124</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4524385208107212</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019856241355057</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4716997653184858</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P13" t="n">
-        <v>125.1724135627376</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.5238388796978</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_11</t>
+          <t>model_4_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9752150552546007</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8139427254724944</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9937149619668006</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7957288706118977</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9424320892851729</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G14" t="n">
-        <v>0.165737039636662</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H14" t="n">
-        <v>1.244165851480404</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07607345452217823</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9055988009581692</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4908361277401738</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2512328614491753</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4071081424347369</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N14" t="n">
-        <v>1.016076720915935</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4244395788882165</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P14" t="n">
-        <v>125.5947056904213</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.9461310073816</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_24</t>
+          <t>model_4_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9691012289676608</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8139133218391603</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9874779748454728</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7436892418466994</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9244756899491109</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2066202241690106</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H15" t="n">
-        <v>1.2443624737119</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1515653057446308</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J15" t="n">
-        <v>1.136307005065336</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6439361692186438</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2431168127819088</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M15" t="n">
-        <v>0.454554973758962</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N15" t="n">
-        <v>1.020042446075031</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4739063200503948</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P15" t="n">
-        <v>125.1537456732554</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.5051709902156</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_10</t>
+          <t>model_4_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9758598795326212</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8137352602173078</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9943661410213233</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8028946808096196</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9447572799686299</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1614250967203958</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H16" t="n">
-        <v>1.245553172597127</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06819165015944384</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8738304882142696</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4710110624016181</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L16" t="n">
-        <v>0.252537658023946</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4017774218648875</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015658456519381</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4188819185075958</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P16" t="n">
-        <v>125.6474280826073</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.9988533995675</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_9</t>
+          <t>model_4_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9764930229104019</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8134374987358246</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9950051105445086</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8106549358077741</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9472283474487213</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1571912640378197</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H17" t="n">
-        <v>1.24754430499487</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06045762870940119</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8394268128514814</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4499422207804412</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2540227363939355</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3964735351039458</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N17" t="n">
-        <v>1.015247768922983</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4133522343066816</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P17" t="n">
-        <v>125.7005839456195</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.0520092625797</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_8</t>
+          <t>model_4_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9770922575042549</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8130220752292447</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9956107561426983</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8190146534995436</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9498316115668347</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1531841795495033</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H18" t="n">
-        <v>1.250322243896219</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05312695662323874</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8023655289554508</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4277462427893448</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2557141676565733</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3913875056124088</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014859076213456</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4080496820101573</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7522285873123</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.1036539042726</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_7</t>
+          <t>model_4_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9776273700709376</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8124537053502989</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9961550104593487</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8279593265251864</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9525433775231891</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1496058793521287</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H19" t="n">
-        <v>1.254122935893832</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0465393583004437</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7627109522600091</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4046251552802264</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2581306313084598</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3867891923931287</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014511976170203</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4032556090773119</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P19" t="n">
-        <v>125.7995018274637</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.150927144424</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_6</t>
+          <t>model_4_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9780575246973239</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8116870751103935</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9966007752341394</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8374443316057272</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9553257115430608</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1467294333848039</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H20" t="n">
-        <v>1.259249395838087</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04114386727183086</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7206609119349265</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3809023896033786</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2609999259049061</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3830527814607328</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014232956953087</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O20" t="n">
-        <v>0.399360131396087</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P20" t="n">
-        <v>125.8383299547763</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.1897552717365</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_5</t>
+          <t>model_4_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9783284373212964</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8106635879893963</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9968999001458588</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8473839846619062</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9581221599842181</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1449178394208618</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H21" t="n">
-        <v>1.266093458928921</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03752329007755763</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6765952727201263</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3570592813988419</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2642790379991949</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3806807578810122</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014057229845646</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O21" t="n">
-        <v>0.396887125861812</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P21" t="n">
-        <v>125.8631766436754</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.2146019606357</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_4</t>
+          <t>model_4_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.978368128624261</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C22" t="n">
-        <v>0.809307661513171</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D22" t="n">
-        <v>0.996990286196756</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8576318159652929</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9608505652040695</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1446524234951757</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H22" t="n">
-        <v>1.275160545518906</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03642926660529795</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6311633814461696</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3337963240257338</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2680357073368088</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3803319911540123</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014031484135614</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3965235114131971</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P22" t="n">
-        <v>125.8668429869987</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.2182683039589</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_3</t>
+          <t>model_4_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9780817439353353</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C23" t="n">
-        <v>0.807521382470172</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9967919997810799</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8679597810600511</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9633949025251308</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1465674792287022</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H23" t="n">
-        <v>1.2871054017045</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03882930500532339</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5853762316214837</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3121027683134036</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2723255854659107</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3828413238258146</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01421724717708</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3991396715718727</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P23" t="n">
-        <v>125.8405386950063</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.1919640119666</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_2</t>
+          <t>model_4_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9773451951688256</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8051786829232621</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9962030242283909</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8780265955676294</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9655940322866584</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1514927842218481</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H24" t="n">
-        <v>1.302771044361825</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04595820457370871</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5407468453012542</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2933525249374814</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2772199713452655</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3892207397118608</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01469500853914</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4057906723993994</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P24" t="n">
-        <v>125.7744345681314</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.1258598850916</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_1</t>
+          <t>model_4_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9759972313776748</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8021167631655244</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9950928681559997</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8873468971770074</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9672291461168567</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1605066243000753</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H25" t="n">
-        <v>1.323246115880662</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0593954195976221</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4994269877800041</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2794112001462339</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2827815678069802</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4006327798621517</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015569363430697</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4176885467250679</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P25" t="n">
-        <v>125.6588401287322</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q25" t="n">
-        <v>200.0102654456925</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_0</t>
+          <t>model_4_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9738297200523869</v>
+        <v>0.9994912738785552</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7981263101066964</v>
+        <v>0.6806725964963172</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9932943545600365</v>
+        <v>0.9993476784002224</v>
       </c>
       <c r="E26" t="n">
-        <v>0.895249027055289</v>
+        <v>0.9962375791921385</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9680069606483552</v>
+        <v>0.9986413900465918</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1750007825127482</v>
+        <v>0.0003020018015138525</v>
       </c>
       <c r="H26" t="n">
-        <v>1.349930293859391</v>
+        <v>0.1895665409453636</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08116444335329609</v>
+        <v>0.0007003396042700758</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4643943360086847</v>
+        <v>0.001187171653545526</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2727793896809904</v>
+        <v>0.000943755628907801</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2890632465119238</v>
+        <v>0.007272400149046574</v>
       </c>
       <c r="M26" t="n">
-        <v>0.418330948547616</v>
+        <v>0.01737819902964207</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016975316722776</v>
+        <v>1.000329984511207</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4361401630917323</v>
+        <v>0.01811802494016521</v>
       </c>
       <c r="P26" t="n">
-        <v>125.4859296671344</v>
+        <v>138.2101551506591</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.8373549840946</v>
+        <v>212.5615804676193</v>
       </c>
     </row>
   </sheetData>
